--- a/Home Covid19/Product/Product.xlsx
+++ b/Home Covid19/Product/Product.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Desktop\New folder\Home Covid19\Product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Desktop\to ULKA\new Assignments\Product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C384AEB-C9B6-4FCB-8CFB-66566DAFBE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F0C6C-E291-4CB3-A65B-5B6A33177539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="670" xr2:uid="{684E9778-C80D-4EE3-9530-0226986750A1}"/>
   </bookViews>
@@ -6881,10 +6881,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7201,8 +7201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F3225F-DD45-4923-B1B5-B05E54CED2E7}">
   <dimension ref="B1:BU1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7276,80 +7276,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="L1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="U1" s="17" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="U1" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AI1" s="17" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AI1" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AQ1" s="18" t="s">
         <v>1498</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AV1" s="17" t="s">
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AV1" s="18" t="s">
         <v>1845</v>
       </c>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="BA1" s="17" t="s">
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="BA1" s="18" t="s">
         <v>2114</v>
       </c>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
       <c r="BI1" s="1"/>
-      <c r="BK1" s="17" t="s">
+      <c r="BK1" s="18" t="s">
         <v>2230</v>
       </c>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
       <c r="BO1" s="1"/>
     </row>
     <row r="2" spans="2:67" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -7601,7 +7601,7 @@
       <c r="Z3" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="AB3" s="4" t="s">
@@ -42945,16 +42945,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AV1:AY1"/>
     <mergeCell ref="BA1:BD1"/>
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AI1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Home Covid19/Product/Product.xlsx
+++ b/Home Covid19/Product/Product.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Desktop\to ULKA\new Assignments\Product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F0C6C-E291-4CB3-A65B-5B6A33177539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585429EE-F549-421F-9882-AFFF3A7BDF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="670" xr2:uid="{684E9778-C80D-4EE3-9530-0226986750A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BA$2:$BI$112</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7201,8 +7204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F3225F-DD45-4923-B1B5-B05E54CED2E7}">
   <dimension ref="B1:BU1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7258,7 +7261,7 @@
     <col min="51" max="51" width="14.140625" customWidth="1"/>
     <col min="52" max="52" width="1.7109375" customWidth="1"/>
     <col min="53" max="53" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.140625" style="10" customWidth="1"/>
+    <col min="54" max="54" width="38.140625" style="10" customWidth="1"/>
     <col min="55" max="55" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="16.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="25.28515625" style="10" bestFit="1" customWidth="1"/>
@@ -42945,16 +42948,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BA1:BD1"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="BK1:BN1"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="U1:AB1"/>
     <mergeCell ref="AC1:AG1"/>
     <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="BA1:BD1"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BK1:BN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
